--- a/spec/ASW/Eng/Fuel/InjVlv/InjET/InjVlv_CalcET/InjVlv_CalcET.xlsx
+++ b/spec/ASW/Eng/Fuel/InjVlv/InjET/InjVlv_CalcET/InjVlv_CalcET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\InjVlv\InjET\InjVlv_CalcET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE75CA1D-4B4E-4F44-9709-E1E65DC7D464}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BDFA2-BCBB-436A-BD33-BBE40DE39833}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -576,14 +576,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uSec1</t>
-  </si>
-  <si>
     <t>Press_bar1</t>
   </si>
   <si>
     <t>Press_bar1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSec4</t>
   </si>
 </sst>
 </file>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -1060,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -1086,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -1335,7 +1335,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>36</v>
@@ -1361,7 +1361,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>38</v>
@@ -1387,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>40</v>
@@ -1413,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -1465,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>46</v>
@@ -1491,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>48</v>
@@ -1517,7 +1517,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>50</v>
@@ -1543,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>52</v>
@@ -1621,7 +1621,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>54</v>
@@ -1647,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>56</v>
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>58</v>
@@ -1699,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>60</v>
@@ -1725,7 +1725,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>62</v>
@@ -1921,7 +1921,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>79</v>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -1973,7 +1973,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>83</v>
@@ -1999,7 +1999,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>85</v>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2125,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>91</v>
@@ -2177,7 +2177,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>83</v>
@@ -2203,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>99</v>
@@ -2255,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>103</v>
@@ -2307,7 +2307,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>106</v>
@@ -2359,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>110</v>
@@ -2411,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>110</v>
@@ -2437,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
@@ -2515,7 +2515,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>54</v>
@@ -2567,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>56</v>
@@ -2593,7 +2593,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>56</v>
@@ -2645,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>130</v>
@@ -2671,7 +2671,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>130</v>
@@ -2697,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>136</v>
@@ -2740,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>140</v>
@@ -2783,7 +2783,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>144</v>
@@ -2826,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>148</v>
@@ -2878,7 +2878,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>151</v>

--- a/spec/ASW/Eng/Fuel/InjVlv/InjET/InjVlv_CalcET/InjVlv_CalcET.xlsx
+++ b/spec/ASW/Eng/Fuel/InjVlv/InjET/InjVlv_CalcET/InjVlv_CalcET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\InjVlv\InjET\InjVlv_CalcET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BDFA2-BCBB-436A-BD33-BBE40DE39833}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CD0D5-2A9E-4826-B5FD-E2C2A65A3778}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -584,6 +584,14 @@
   </si>
   <si>
     <t>uSec4</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -974,7 +982,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,11 +1211,11 @@
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
+      <c r="E9" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>30</v>
@@ -2064,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
